--- a/RQ3/result/GB/GB_10.xlsx
+++ b/RQ3/result/GB/GB_10.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ml\api-diff\label_data\GB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A56CD78-BD34-41B6-A955-DA0FE22D3D0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F1BD8D-E566-4F41-BF88-135408755BD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>number</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -59,18 +59,6 @@
   </si>
   <si>
     <t>cost_time_v1:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>why choice this API?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>If you are not sure of an answer, what is the reason (because the API documentation does not say, or there are no relevant resources on the web, or something else)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>if you solve problem by website, paste the original URL that supports your choice</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -261,83 +249,6 @@
   </si>
   <si>
     <t>so_title</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Which part do you think spends a lot of time? 1-Understand the problem 2-Use this method to query the time of the question 3-Read and understand the results of the query 4-make a decision</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cost_time_v2: (tool+doc) </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.jianshu.com/p/5c34133ed372</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/u013679744/article/details/56298283</t>
-  </si>
-  <si>
-    <t>https://www.jianshu.com/p/b5fcbf1b321d</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">because hashmap allow null values and the null key </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://codeday.me/bug/20181208/433484.html</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/yuxiangaaaaa/article/details/74251504</t>
-  </si>
-  <si>
-    <t>https://segmentfault.com/a/1190000013535651</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Because the first API can only return a public constructor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HashMap is a lightweight implementation of HashTable. They all complete the Map interface. The main difference is that HashMap allows null key and null value. Due to non-thread-safe, the efficiency may be higher than Hashtable.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Because the first API also constructs a FileWriter object, it will reduce efficiency.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Driver driver = new Driver() which also executes static code blocks internally, which is equivalent to instantiating two Driver objects;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Because exit is the end of the virtual machine process, and dispose is to close the window.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Because Stringbuilder is non-thread safe, it's faster</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>The getCause() method gives the reason (if any) for a particular SQLException. On the other hand, multiple exceptions are likely to occur during processing, considering batch processing, server-side errors for multiple query parameters (for example, too long) Conversion errors, etc.) These multiple exceptions are at the same level (they are not for every other reason), so they are added to a chain of SQLExceptions. The header of this chain is an exception thrown. To get other SQLExceptions in the chain, you can Use getNextException().</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Because the first API gets an entire line of content at a time, it's more efficient</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileInputStream is a stream processing in bytes, there is no garbled problem</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Because the underlying implementation of LinkedList is a linked list, and the hashmap is a hash table, if it is traversed in order, the linked list is faster.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Because the Instant object does not contain time zone information, and the value is immutable</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -353,7 +264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,15 +304,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -426,18 +328,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -448,18 +347,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -799,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -816,12 +707,10 @@
     <col min="7" max="8" width="50.375" style="3" customWidth="1"/>
     <col min="9" max="9" width="49.5" style="3" customWidth="1"/>
     <col min="10" max="10" width="31.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="119.75" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="3"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -829,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -852,23 +741,8 @@
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -876,22 +750,22 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
@@ -899,17 +773,8 @@
       <c r="J2" s="4">
         <v>152</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -917,22 +782,22 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -940,14 +805,8 @@
       <c r="J3" s="5">
         <v>233</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -955,22 +814,22 @@
         <v>40471</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -978,17 +837,8 @@
       <c r="J4" s="4">
         <v>108</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -996,22 +846,22 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -1019,17 +869,8 @@
       <c r="J5" s="5">
         <v>379</v>
       </c>
-      <c r="K5" s="5">
-        <v>548</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1037,22 +878,22 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -1060,17 +901,8 @@
       <c r="J6" s="4">
         <v>144</v>
       </c>
-      <c r="L6" t="s">
-        <v>73</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1078,22 +910,22 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I7" s="5">
         <v>2</v>
@@ -1101,14 +933,8 @@
       <c r="J7" s="5">
         <v>93</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1116,22 +942,22 @@
         <v>355089</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
@@ -1139,17 +965,8 @@
       <c r="J8" s="4">
         <v>124</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="O8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1157,22 +974,22 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I9" s="5">
         <v>1</v>
@@ -1180,14 +997,8 @@
       <c r="J9" s="5">
         <v>97</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1195,22 +1006,22 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
@@ -1218,17 +1029,8 @@
       <c r="J10" s="4">
         <v>159</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1236,22 +1038,22 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
@@ -1259,14 +1061,8 @@
       <c r="J11" s="5">
         <v>111</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1274,22 +1070,22 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1297,17 +1093,8 @@
       <c r="J12" s="4">
         <v>135</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1315,22 +1102,22 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
@@ -1338,21 +1125,10 @@
       <c r="J13" s="5">
         <v>32</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O13" s="5">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="N8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="N10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="N2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RQ3/result/GB/GB_10.xlsx
+++ b/RQ3/result/GB/GB_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F1BD8D-E566-4F41-BF88-135408755BD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E18CC08-CD88-4842-A210-CD095C6F5DEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>cost_time_v1:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -257,6 +253,10 @@
   </si>
   <si>
     <t>When developing a JDBC driver, which one should be used if considering the exception chaining mechanism?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_time:</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:V1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -739,7 +739,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -750,22 +750,22 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
@@ -782,22 +782,22 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -814,22 +814,22 @@
         <v>40471</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -846,22 +846,22 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -878,22 +878,22 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -910,22 +910,22 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" s="5">
         <v>2</v>
@@ -942,22 +942,22 @@
         <v>355089</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
@@ -974,22 +974,22 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="5">
         <v>1</v>
@@ -1006,22 +1006,22 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
@@ -1038,22 +1038,22 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
@@ -1070,22 +1070,22 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1102,22 +1102,22 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
